--- a/Örnek 15 - Birden Çok Sayı Toplama.xlsx
+++ b/Örnek 15 - Birden Çok Sayı Toplama.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kagan\Desktop\OneDrive_2018-12-18\Excel Uygulama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubo_\OneDrive\Masaüstü\excel ödevi 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7A0BA4D-FCC1-42F2-8569-39DDFDEFE84C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47F2CCC0-FE99-45EC-AF50-4646F6BBCA86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa 1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>topla</t>
   </si>
@@ -58,12 +60,18 @@
   </si>
   <si>
     <t>Bölüm:</t>
+  </si>
+  <si>
+    <t>KÜBRA ÇABUK</t>
+  </si>
+  <si>
+    <t>YBS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -517,14 +525,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor indexed="11"/>
   </sheetPr>
   <dimension ref="C2:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -550,7 +558,9 @@
       <c r="O4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="8"/>
+      <c r="P4" s="8">
+        <v>20215070019</v>
+      </c>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
     </row>
@@ -564,7 +574,9 @@
       <c r="O5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="8"/>
+      <c r="P5" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
     </row>
@@ -572,11 +584,16 @@
       <c r="D6" s="2">
         <v>85</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4">
+        <f>SUM(D4:D17)</f>
+        <v>1484</v>
+      </c>
       <c r="O6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="8"/>
+      <c r="P6" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
     </row>
@@ -651,7 +668,10 @@
       <c r="C18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4">
+        <f>SUM(D4:D17)</f>
+        <v>1484</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
